--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0026-011 - View agenda pada Portal.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0026-011 - View agenda pada Portal.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F38CA37-5500-4424-93A4-0AD841C44B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE35F7B-6AAC-483E-914E-9829EC8A51A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0338" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0026" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -145,9 +145,6 @@
     <t>2022-10-25</t>
   </si>
   <si>
-    <t>SCD0338-011</t>
-  </si>
-  <si>
     <t>Hanya dapat melihat aktivitas sales di Wilayahnya</t>
   </si>
   <si>
@@ -164,6 +161,9 @@
   </si>
   <si>
     <t>select p.Nama, p.Npp, p.Role_Id, mr.Nama AS [nama role],u.KodeOutlet ,p.SalesTypeId, p.Unit_Id,u.Parent_Id,u.Wilayah_Id, u.Code [cabang], uw.Code[wilayah],u.KodeEIS,uw.NamaWilayah,p.Supervisor_Id from DigisalesNew..Tbl_Pegawai as p JOIN DigisalesNew..Tbl_Unit as u ON p.Unit_Id=u.Id JOIN DigisalesNew..Tbl_Unit_Wilayah as uw ON u.Wilayah_Id = uw.Id JOIN DigisalesNew..Tbl_Master_Role as mr On p.Role_Id = mr.Id where uw.Code='05' and p.Role_Id in +(9)1015,1005, 4 +(0) order by p.Nama ASC</t>
+  </si>
+  <si>
+    <t>SCD0026-011</t>
   </si>
 </sst>
 </file>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:AB6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>18</v>
@@ -722,7 +722,7 @@
         <v>35</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2" s="4">
         <v>26482</v>
@@ -731,7 +731,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>19</v>
@@ -744,7 +744,7 @@
       <c r="O2" s="13"/>
       <c r="P2" s="13"/>
       <c r="T2" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W2" s="5" t="s">
         <v>31</v>
@@ -756,7 +756,7 @@
         <v>33</v>
       </c>
       <c r="Z2" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>18</v>
@@ -773,7 +773,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="4">
         <v>26482</v>
@@ -782,7 +782,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>19</v>
@@ -790,10 +790,10 @@
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>42</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>20</v>
